--- a/04_memo/map12.xlsx
+++ b/04_memo/map12.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\チーム制作\Graduation\04_memo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\チーム制作\Graduation\04_memo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F152AAED-3E7C-4941-85D3-4CCACD010303}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7C9613-BC2C-483D-8924-BCBAA13A45C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{C7BDA5DA-34EB-4FCF-82F5-5A002EE4A89E}"/>
   </bookViews>
@@ -709,3643 +709,7 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1092">
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor theme="0"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF33CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor theme="0"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF33CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor theme="0"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF33CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor theme="0"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF33CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor theme="0"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF33CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor theme="0"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF33CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor theme="0"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF33CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor theme="0"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF33CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor theme="0"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF33CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor theme="0"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF33CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor theme="0"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF33CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor theme="0"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF33CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor theme="0"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF33CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor theme="0"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF33CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor theme="0"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF33CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor theme="0"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF33CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor theme="0"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF33CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor theme="0"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF33CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor theme="0"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF33CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor theme="0"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF33CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor theme="0"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF33CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor theme="0"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF33CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor theme="0"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF33CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor theme="0"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF33CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor theme="0"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF33CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor theme="0"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF33CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor theme="0"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF33CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor theme="0"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF33CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor theme="0"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF33CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor theme="0"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF33CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor theme="0"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF33CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor theme="0"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF33CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor theme="0"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF33CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor theme="0"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF33CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor theme="0"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF33CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor theme="0"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF33CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="624">
     <dxf>
       <fill>
         <patternFill patternType="gray0625">
@@ -9533,7 +5897,7 @@
   <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -9976,7 +6340,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -10673,1847 +7037,1847 @@
   </sheetData>
   <phoneticPr fontId="18"/>
   <conditionalFormatting sqref="M10:N10 A17:C18 H12:K13 A15:C15 E15:F15 E18:I18 A12:C12 E12:F12 H15:I15 M9">
-    <cfRule type="cellIs" dxfId="1091" priority="1249" operator="equal">
+    <cfRule type="cellIs" dxfId="623" priority="1249" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1090" priority="1250" operator="equal">
+    <cfRule type="cellIs" dxfId="622" priority="1250" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1089" priority="1251" operator="equal">
+    <cfRule type="cellIs" dxfId="621" priority="1251" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1088" priority="1252" operator="equal">
+    <cfRule type="cellIs" dxfId="620" priority="1252" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1087" priority="1253" operator="equal">
+    <cfRule type="cellIs" dxfId="619" priority="1253" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1086" priority="1254" operator="equal">
+    <cfRule type="cellIs" dxfId="618" priority="1254" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1085" priority="1255" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1084" priority="1256" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1083" priority="1257" operator="equal">
+    <cfRule type="cellIs" dxfId="617" priority="1255" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="616" priority="1256" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="615" priority="1257" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1082" priority="1258" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1081" priority="1259" operator="equal">
+    <cfRule type="cellIs" dxfId="614" priority="1258" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="613" priority="1259" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1080" priority="1260" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1079" priority="1261" operator="equal">
+    <cfRule type="cellIs" dxfId="612" priority="1260" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="611" priority="1261" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9 J10:L10 H11:K11 A4:I4 A10:I12 A18:I18 H17:I17 A13:C17 H13:I15 E13:F17 H7:I9 H5:I5 A5:C9 E5:F8">
-    <cfRule type="cellIs" dxfId="1078" priority="1236" operator="equal">
+    <cfRule type="cellIs" dxfId="610" priority="1236" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1077" priority="1237" operator="equal">
+    <cfRule type="cellIs" dxfId="609" priority="1237" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1076" priority="1238" operator="equal">
+    <cfRule type="cellIs" dxfId="608" priority="1238" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1075" priority="1239" operator="equal">
+    <cfRule type="cellIs" dxfId="607" priority="1239" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1074" priority="1240" operator="equal">
+    <cfRule type="cellIs" dxfId="606" priority="1240" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1073" priority="1241" operator="equal">
+    <cfRule type="cellIs" dxfId="605" priority="1241" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1072" priority="1242" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1071" priority="1243" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1070" priority="1244" operator="equal">
+    <cfRule type="cellIs" dxfId="604" priority="1242" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="603" priority="1243" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="602" priority="1244" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1069" priority="1245" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1068" priority="1246" operator="equal">
+    <cfRule type="cellIs" dxfId="601" priority="1245" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="600" priority="1246" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1067" priority="1247" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1066" priority="1248" operator="equal">
+    <cfRule type="cellIs" dxfId="599" priority="1247" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="598" priority="1248" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12:N12 L11:M11 M13:N13">
-    <cfRule type="cellIs" dxfId="1065" priority="1223" operator="equal">
+    <cfRule type="cellIs" dxfId="597" priority="1223" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1064" priority="1224" operator="equal">
+    <cfRule type="cellIs" dxfId="596" priority="1224" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1063" priority="1225" operator="equal">
+    <cfRule type="cellIs" dxfId="595" priority="1225" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1062" priority="1226" operator="equal">
+    <cfRule type="cellIs" dxfId="594" priority="1226" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1061" priority="1227" operator="equal">
+    <cfRule type="cellIs" dxfId="593" priority="1227" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1060" priority="1228" operator="equal">
+    <cfRule type="cellIs" dxfId="592" priority="1228" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1059" priority="1229" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1058" priority="1230" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1057" priority="1231" operator="equal">
+    <cfRule type="cellIs" dxfId="591" priority="1229" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="590" priority="1230" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="589" priority="1231" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1056" priority="1232" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1055" priority="1233" operator="equal">
+    <cfRule type="cellIs" dxfId="588" priority="1232" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="587" priority="1233" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1054" priority="1234" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1053" priority="1235" operator="equal">
+    <cfRule type="cellIs" dxfId="586" priority="1234" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="585" priority="1235" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9">
-    <cfRule type="cellIs" dxfId="974" priority="1080" operator="equal">
+    <cfRule type="cellIs" dxfId="584" priority="1080" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="973" priority="1081" operator="equal">
+    <cfRule type="cellIs" dxfId="583" priority="1081" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="972" priority="1082" operator="equal">
+    <cfRule type="cellIs" dxfId="582" priority="1082" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="971" priority="1083" operator="equal">
+    <cfRule type="cellIs" dxfId="581" priority="1083" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="970" priority="1084" operator="equal">
+    <cfRule type="cellIs" dxfId="580" priority="1084" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="969" priority="1085" operator="equal">
+    <cfRule type="cellIs" dxfId="579" priority="1085" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="968" priority="1086" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="967" priority="1087" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="966" priority="1088" operator="equal">
+    <cfRule type="cellIs" dxfId="578" priority="1086" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="577" priority="1087" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="576" priority="1088" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="965" priority="1089" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="964" priority="1090" operator="equal">
+    <cfRule type="cellIs" dxfId="575" priority="1089" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="574" priority="1090" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="963" priority="1091" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="962" priority="1092" operator="equal">
+    <cfRule type="cellIs" dxfId="573" priority="1091" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="572" priority="1092" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9">
-    <cfRule type="cellIs" dxfId="961" priority="1067" operator="equal">
+    <cfRule type="cellIs" dxfId="571" priority="1067" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="960" priority="1068" operator="equal">
+    <cfRule type="cellIs" dxfId="570" priority="1068" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="959" priority="1069" operator="equal">
+    <cfRule type="cellIs" dxfId="569" priority="1069" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="958" priority="1070" operator="equal">
+    <cfRule type="cellIs" dxfId="568" priority="1070" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="957" priority="1071" operator="equal">
+    <cfRule type="cellIs" dxfId="567" priority="1071" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="956" priority="1072" operator="equal">
+    <cfRule type="cellIs" dxfId="566" priority="1072" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="955" priority="1073" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="954" priority="1074" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="953" priority="1075" operator="equal">
+    <cfRule type="cellIs" dxfId="565" priority="1073" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="564" priority="1074" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="563" priority="1075" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="952" priority="1076" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="951" priority="1077" operator="equal">
+    <cfRule type="cellIs" dxfId="562" priority="1076" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="561" priority="1077" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="950" priority="1078" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="949" priority="1079" operator="equal">
+    <cfRule type="cellIs" dxfId="560" priority="1078" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="559" priority="1079" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N11">
-    <cfRule type="cellIs" dxfId="948" priority="1054" operator="equal">
+    <cfRule type="cellIs" dxfId="558" priority="1054" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="947" priority="1055" operator="equal">
+    <cfRule type="cellIs" dxfId="557" priority="1055" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="946" priority="1056" operator="equal">
+    <cfRule type="cellIs" dxfId="556" priority="1056" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="945" priority="1057" operator="equal">
+    <cfRule type="cellIs" dxfId="555" priority="1057" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="944" priority="1058" operator="equal">
+    <cfRule type="cellIs" dxfId="554" priority="1058" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="943" priority="1059" operator="equal">
+    <cfRule type="cellIs" dxfId="553" priority="1059" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="942" priority="1060" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="941" priority="1061" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="940" priority="1062" operator="equal">
+    <cfRule type="cellIs" dxfId="552" priority="1060" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="551" priority="1061" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="550" priority="1062" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="939" priority="1063" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="938" priority="1064" operator="equal">
+    <cfRule type="cellIs" dxfId="549" priority="1063" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="548" priority="1064" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="937" priority="1065" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="936" priority="1066" operator="equal">
+    <cfRule type="cellIs" dxfId="547" priority="1065" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="546" priority="1066" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9">
-    <cfRule type="cellIs" dxfId="935" priority="1041" operator="equal">
+    <cfRule type="cellIs" dxfId="545" priority="1041" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="934" priority="1042" operator="equal">
+    <cfRule type="cellIs" dxfId="544" priority="1042" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="933" priority="1043" operator="equal">
+    <cfRule type="cellIs" dxfId="543" priority="1043" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="932" priority="1044" operator="equal">
+    <cfRule type="cellIs" dxfId="542" priority="1044" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="931" priority="1045" operator="equal">
+    <cfRule type="cellIs" dxfId="541" priority="1045" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="930" priority="1046" operator="equal">
+    <cfRule type="cellIs" dxfId="540" priority="1046" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="929" priority="1047" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="928" priority="1048" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="927" priority="1049" operator="equal">
+    <cfRule type="cellIs" dxfId="539" priority="1047" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="538" priority="1048" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="537" priority="1049" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="926" priority="1050" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="925" priority="1051" operator="equal">
+    <cfRule type="cellIs" dxfId="536" priority="1050" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="535" priority="1051" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="924" priority="1052" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="923" priority="1053" operator="equal">
+    <cfRule type="cellIs" dxfId="534" priority="1052" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="533" priority="1053" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13">
-    <cfRule type="cellIs" dxfId="922" priority="1028" operator="equal">
+    <cfRule type="cellIs" dxfId="532" priority="1028" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="921" priority="1029" operator="equal">
+    <cfRule type="cellIs" dxfId="531" priority="1029" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="920" priority="1030" operator="equal">
+    <cfRule type="cellIs" dxfId="530" priority="1030" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="919" priority="1031" operator="equal">
+    <cfRule type="cellIs" dxfId="529" priority="1031" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="918" priority="1032" operator="equal">
+    <cfRule type="cellIs" dxfId="528" priority="1032" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="917" priority="1033" operator="equal">
+    <cfRule type="cellIs" dxfId="527" priority="1033" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="916" priority="1034" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="915" priority="1035" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="914" priority="1036" operator="equal">
+    <cfRule type="cellIs" dxfId="526" priority="1034" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="525" priority="1035" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="524" priority="1036" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="913" priority="1037" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="912" priority="1038" operator="equal">
+    <cfRule type="cellIs" dxfId="523" priority="1037" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="522" priority="1038" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="911" priority="1039" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="910" priority="1040" operator="equal">
+    <cfRule type="cellIs" dxfId="521" priority="1039" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="520" priority="1040" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9 A9:C9">
-    <cfRule type="cellIs" dxfId="909" priority="1015" operator="equal">
+    <cfRule type="cellIs" dxfId="519" priority="1015" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="908" priority="1016" operator="equal">
+    <cfRule type="cellIs" dxfId="518" priority="1016" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="907" priority="1017" operator="equal">
+    <cfRule type="cellIs" dxfId="517" priority="1017" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="906" priority="1018" operator="equal">
+    <cfRule type="cellIs" dxfId="516" priority="1018" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="905" priority="1019" operator="equal">
+    <cfRule type="cellIs" dxfId="515" priority="1019" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="904" priority="1020" operator="equal">
+    <cfRule type="cellIs" dxfId="514" priority="1020" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="903" priority="1021" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="902" priority="1022" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="901" priority="1023" operator="equal">
+    <cfRule type="cellIs" dxfId="513" priority="1021" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="512" priority="1022" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="511" priority="1023" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="900" priority="1024" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="899" priority="1025" operator="equal">
+    <cfRule type="cellIs" dxfId="510" priority="1024" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="509" priority="1025" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="898" priority="1026" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="897" priority="1027" operator="equal">
+    <cfRule type="cellIs" dxfId="508" priority="1026" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="507" priority="1027" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5:F5 H5">
-    <cfRule type="cellIs" dxfId="844" priority="937" operator="equal">
+    <cfRule type="cellIs" dxfId="506" priority="937" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="843" priority="938" operator="equal">
+    <cfRule type="cellIs" dxfId="505" priority="938" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="842" priority="939" operator="equal">
+    <cfRule type="cellIs" dxfId="504" priority="939" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="841" priority="940" operator="equal">
+    <cfRule type="cellIs" dxfId="503" priority="940" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="840" priority="941" operator="equal">
+    <cfRule type="cellIs" dxfId="502" priority="941" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="839" priority="942" operator="equal">
+    <cfRule type="cellIs" dxfId="501" priority="942" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="838" priority="943" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="837" priority="944" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="836" priority="945" operator="equal">
+    <cfRule type="cellIs" dxfId="500" priority="943" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="499" priority="944" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="498" priority="945" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="835" priority="946" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="834" priority="947" operator="equal">
+    <cfRule type="cellIs" dxfId="497" priority="946" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="496" priority="947" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="833" priority="948" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="832" priority="949" operator="equal">
+    <cfRule type="cellIs" dxfId="495" priority="948" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="494" priority="949" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17:F17 H17:I17">
-    <cfRule type="cellIs" dxfId="792" priority="872" operator="equal">
+    <cfRule type="cellIs" dxfId="493" priority="872" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="791" priority="873" operator="equal">
+    <cfRule type="cellIs" dxfId="492" priority="873" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="790" priority="874" operator="equal">
+    <cfRule type="cellIs" dxfId="491" priority="874" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="789" priority="875" operator="equal">
+    <cfRule type="cellIs" dxfId="490" priority="875" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="788" priority="876" operator="equal">
+    <cfRule type="cellIs" dxfId="489" priority="876" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="787" priority="877" operator="equal">
+    <cfRule type="cellIs" dxfId="488" priority="877" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="786" priority="878" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="785" priority="879" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="784" priority="880" operator="equal">
+    <cfRule type="cellIs" dxfId="487" priority="878" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="486" priority="879" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="485" priority="880" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="783" priority="881" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="782" priority="882" operator="equal">
+    <cfRule type="cellIs" dxfId="484" priority="881" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="483" priority="882" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="781" priority="883" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="780" priority="884" operator="equal">
+    <cfRule type="cellIs" dxfId="482" priority="883" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="481" priority="884" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="cellIs" dxfId="714" priority="677" operator="equal">
+    <cfRule type="cellIs" dxfId="480" priority="677" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="713" priority="678" operator="equal">
+    <cfRule type="cellIs" dxfId="479" priority="678" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="712" priority="679" operator="equal">
+    <cfRule type="cellIs" dxfId="478" priority="679" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="711" priority="680" operator="equal">
+    <cfRule type="cellIs" dxfId="477" priority="680" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="710" priority="681" operator="equal">
+    <cfRule type="cellIs" dxfId="476" priority="681" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="709" priority="682" operator="equal">
+    <cfRule type="cellIs" dxfId="475" priority="682" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="708" priority="683" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="707" priority="684" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="706" priority="685" operator="equal">
+    <cfRule type="cellIs" dxfId="474" priority="683" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="473" priority="684" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="472" priority="685" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="705" priority="686" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="704" priority="687" operator="equal">
+    <cfRule type="cellIs" dxfId="471" priority="686" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="470" priority="687" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="703" priority="688" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="702" priority="689" operator="equal">
+    <cfRule type="cellIs" dxfId="469" priority="688" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="468" priority="689" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:G12">
-    <cfRule type="cellIs" dxfId="701" priority="664" operator="equal">
+    <cfRule type="cellIs" dxfId="467" priority="664" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="700" priority="665" operator="equal">
+    <cfRule type="cellIs" dxfId="466" priority="665" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="699" priority="666" operator="equal">
+    <cfRule type="cellIs" dxfId="465" priority="666" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="698" priority="667" operator="equal">
+    <cfRule type="cellIs" dxfId="464" priority="667" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="697" priority="668" operator="equal">
+    <cfRule type="cellIs" dxfId="463" priority="668" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="696" priority="669" operator="equal">
+    <cfRule type="cellIs" dxfId="462" priority="669" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="695" priority="670" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="694" priority="671" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="693" priority="672" operator="equal">
+    <cfRule type="cellIs" dxfId="461" priority="670" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="460" priority="671" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="459" priority="672" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="692" priority="673" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="691" priority="674" operator="equal">
+    <cfRule type="cellIs" dxfId="458" priority="673" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="457" priority="674" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="690" priority="675" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="689" priority="676" operator="equal">
+    <cfRule type="cellIs" dxfId="456" priority="675" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="455" priority="676" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:C11 E11:F11">
-    <cfRule type="cellIs" dxfId="688" priority="651" operator="equal">
+    <cfRule type="cellIs" dxfId="454" priority="651" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="687" priority="652" operator="equal">
+    <cfRule type="cellIs" dxfId="453" priority="652" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="686" priority="653" operator="equal">
+    <cfRule type="cellIs" dxfId="452" priority="653" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="685" priority="654" operator="equal">
+    <cfRule type="cellIs" dxfId="451" priority="654" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="684" priority="655" operator="equal">
+    <cfRule type="cellIs" dxfId="450" priority="655" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="683" priority="656" operator="equal">
+    <cfRule type="cellIs" dxfId="449" priority="656" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="682" priority="657" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="681" priority="658" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="680" priority="659" operator="equal">
+    <cfRule type="cellIs" dxfId="448" priority="657" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="447" priority="658" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="446" priority="659" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="679" priority="660" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="678" priority="661" operator="equal">
+    <cfRule type="cellIs" dxfId="445" priority="660" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="444" priority="661" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="677" priority="662" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="676" priority="663" operator="equal">
+    <cfRule type="cellIs" dxfId="443" priority="662" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="442" priority="663" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:D12">
-    <cfRule type="cellIs" dxfId="675" priority="638" operator="equal">
+    <cfRule type="cellIs" dxfId="441" priority="638" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="674" priority="639" operator="equal">
+    <cfRule type="cellIs" dxfId="440" priority="639" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="673" priority="640" operator="equal">
+    <cfRule type="cellIs" dxfId="439" priority="640" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="672" priority="641" operator="equal">
+    <cfRule type="cellIs" dxfId="438" priority="641" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="671" priority="642" operator="equal">
+    <cfRule type="cellIs" dxfId="437" priority="642" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="670" priority="643" operator="equal">
+    <cfRule type="cellIs" dxfId="436" priority="643" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="669" priority="644" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="668" priority="645" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="667" priority="646" operator="equal">
+    <cfRule type="cellIs" dxfId="435" priority="644" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="434" priority="645" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="433" priority="646" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="666" priority="647" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="665" priority="648" operator="equal">
+    <cfRule type="cellIs" dxfId="432" priority="647" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="431" priority="648" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="664" priority="649" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="663" priority="650" operator="equal">
+    <cfRule type="cellIs" dxfId="430" priority="649" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="429" priority="650" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="662" priority="612" operator="equal">
+    <cfRule type="cellIs" dxfId="428" priority="612" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="661" priority="613" operator="equal">
+    <cfRule type="cellIs" dxfId="427" priority="613" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="660" priority="614" operator="equal">
+    <cfRule type="cellIs" dxfId="426" priority="614" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="659" priority="615" operator="equal">
+    <cfRule type="cellIs" dxfId="425" priority="615" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="658" priority="616" operator="equal">
+    <cfRule type="cellIs" dxfId="424" priority="616" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="657" priority="617" operator="equal">
+    <cfRule type="cellIs" dxfId="423" priority="617" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="656" priority="618" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="655" priority="619" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="654" priority="620" operator="equal">
+    <cfRule type="cellIs" dxfId="422" priority="618" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="421" priority="619" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="420" priority="620" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="653" priority="621" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="652" priority="622" operator="equal">
+    <cfRule type="cellIs" dxfId="419" priority="621" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="418" priority="622" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="651" priority="623" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="650" priority="624" operator="equal">
+    <cfRule type="cellIs" dxfId="417" priority="623" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="416" priority="624" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:C14 H14:I14 E14:F14">
-    <cfRule type="cellIs" dxfId="636" priority="586" operator="equal">
+    <cfRule type="cellIs" dxfId="415" priority="586" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="635" priority="587" operator="equal">
+    <cfRule type="cellIs" dxfId="414" priority="587" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="634" priority="588" operator="equal">
+    <cfRule type="cellIs" dxfId="413" priority="588" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="633" priority="589" operator="equal">
+    <cfRule type="cellIs" dxfId="412" priority="589" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="632" priority="590" operator="equal">
+    <cfRule type="cellIs" dxfId="411" priority="590" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="631" priority="591" operator="equal">
+    <cfRule type="cellIs" dxfId="410" priority="591" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="630" priority="592" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="629" priority="593" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="628" priority="594" operator="equal">
+    <cfRule type="cellIs" dxfId="409" priority="592" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="408" priority="593" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="407" priority="594" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="627" priority="595" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="626" priority="596" operator="equal">
+    <cfRule type="cellIs" dxfId="406" priority="595" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="405" priority="596" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="625" priority="597" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="624" priority="598" operator="equal">
+    <cfRule type="cellIs" dxfId="404" priority="597" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="403" priority="598" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I5 I7:I9">
-    <cfRule type="cellIs" dxfId="623" priority="573" operator="equal">
+    <cfRule type="cellIs" dxfId="402" priority="573" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="622" priority="574" operator="equal">
+    <cfRule type="cellIs" dxfId="401" priority="574" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="621" priority="575" operator="equal">
+    <cfRule type="cellIs" dxfId="400" priority="575" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="620" priority="576" operator="equal">
+    <cfRule type="cellIs" dxfId="399" priority="576" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="619" priority="577" operator="equal">
+    <cfRule type="cellIs" dxfId="398" priority="577" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="618" priority="578" operator="equal">
+    <cfRule type="cellIs" dxfId="397" priority="578" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="617" priority="579" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="616" priority="580" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="615" priority="581" operator="equal">
+    <cfRule type="cellIs" dxfId="396" priority="579" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="395" priority="580" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="394" priority="581" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="614" priority="582" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="613" priority="583" operator="equal">
+    <cfRule type="cellIs" dxfId="393" priority="582" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="392" priority="583" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="612" priority="584" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="611" priority="585" operator="equal">
+    <cfRule type="cellIs" dxfId="391" priority="584" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="390" priority="585" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:C16 E16:F16">
-    <cfRule type="cellIs" dxfId="584" priority="534" operator="equal">
+    <cfRule type="cellIs" dxfId="389" priority="534" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="583" priority="535" operator="equal">
+    <cfRule type="cellIs" dxfId="388" priority="535" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="582" priority="536" operator="equal">
+    <cfRule type="cellIs" dxfId="387" priority="536" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="581" priority="537" operator="equal">
+    <cfRule type="cellIs" dxfId="386" priority="537" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="580" priority="538" operator="equal">
+    <cfRule type="cellIs" dxfId="385" priority="538" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="579" priority="539" operator="equal">
+    <cfRule type="cellIs" dxfId="384" priority="539" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="578" priority="540" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="577" priority="541" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="576" priority="542" operator="equal">
+    <cfRule type="cellIs" dxfId="383" priority="540" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="382" priority="541" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="381" priority="542" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="575" priority="543" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="574" priority="544" operator="equal">
+    <cfRule type="cellIs" dxfId="380" priority="543" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="379" priority="544" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="573" priority="545" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="572" priority="546" operator="equal">
+    <cfRule type="cellIs" dxfId="378" priority="545" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="377" priority="546" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:I10">
-    <cfRule type="cellIs" dxfId="571" priority="521" operator="equal">
+    <cfRule type="cellIs" dxfId="376" priority="521" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="570" priority="522" operator="equal">
+    <cfRule type="cellIs" dxfId="375" priority="522" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="569" priority="523" operator="equal">
+    <cfRule type="cellIs" dxfId="374" priority="523" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="568" priority="524" operator="equal">
+    <cfRule type="cellIs" dxfId="373" priority="524" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="567" priority="525" operator="equal">
+    <cfRule type="cellIs" dxfId="372" priority="525" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="566" priority="526" operator="equal">
+    <cfRule type="cellIs" dxfId="371" priority="526" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="565" priority="527" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="564" priority="528" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="563" priority="529" operator="equal">
+    <cfRule type="cellIs" dxfId="370" priority="527" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="369" priority="528" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="368" priority="529" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="562" priority="530" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="561" priority="531" operator="equal">
+    <cfRule type="cellIs" dxfId="367" priority="530" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="366" priority="531" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="560" priority="532" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="559" priority="533" operator="equal">
+    <cfRule type="cellIs" dxfId="365" priority="532" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="364" priority="533" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4 G10">
-    <cfRule type="cellIs" dxfId="558" priority="508" operator="equal">
+    <cfRule type="cellIs" dxfId="363" priority="508" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="557" priority="509" operator="equal">
+    <cfRule type="cellIs" dxfId="362" priority="509" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="556" priority="510" operator="equal">
+    <cfRule type="cellIs" dxfId="361" priority="510" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="555" priority="511" operator="equal">
+    <cfRule type="cellIs" dxfId="360" priority="511" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="554" priority="512" operator="equal">
+    <cfRule type="cellIs" dxfId="359" priority="512" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="553" priority="513" operator="equal">
+    <cfRule type="cellIs" dxfId="358" priority="513" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="552" priority="514" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="551" priority="515" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="550" priority="516" operator="equal">
+    <cfRule type="cellIs" dxfId="357" priority="514" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="356" priority="515" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="355" priority="516" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="549" priority="517" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="548" priority="518" operator="equal">
+    <cfRule type="cellIs" dxfId="354" priority="517" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="353" priority="518" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="547" priority="519" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="546" priority="520" operator="equal">
+    <cfRule type="cellIs" dxfId="352" priority="519" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="351" priority="520" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:C13 E13:F13">
-    <cfRule type="cellIs" dxfId="493" priority="443" operator="equal">
+    <cfRule type="cellIs" dxfId="350" priority="443" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="492" priority="444" operator="equal">
+    <cfRule type="cellIs" dxfId="349" priority="444" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="491" priority="445" operator="equal">
+    <cfRule type="cellIs" dxfId="348" priority="445" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="490" priority="446" operator="equal">
+    <cfRule type="cellIs" dxfId="347" priority="446" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="489" priority="447" operator="equal">
+    <cfRule type="cellIs" dxfId="346" priority="447" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="488" priority="448" operator="equal">
+    <cfRule type="cellIs" dxfId="345" priority="448" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="487" priority="449" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="486" priority="450" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="485" priority="451" operator="equal">
+    <cfRule type="cellIs" dxfId="344" priority="449" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="343" priority="450" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="342" priority="451" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="484" priority="452" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="483" priority="453" operator="equal">
+    <cfRule type="cellIs" dxfId="341" priority="452" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="340" priority="453" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="482" priority="454" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="481" priority="455" operator="equal">
+    <cfRule type="cellIs" dxfId="339" priority="454" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="338" priority="455" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:C6 E6:F6">
-    <cfRule type="cellIs" dxfId="402" priority="352" operator="equal">
+    <cfRule type="cellIs" dxfId="337" priority="352" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="401" priority="353" operator="equal">
+    <cfRule type="cellIs" dxfId="336" priority="353" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="400" priority="354" operator="equal">
+    <cfRule type="cellIs" dxfId="335" priority="354" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="399" priority="355" operator="equal">
+    <cfRule type="cellIs" dxfId="334" priority="355" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="398" priority="356" operator="equal">
+    <cfRule type="cellIs" dxfId="333" priority="356" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="397" priority="357" operator="equal">
+    <cfRule type="cellIs" dxfId="332" priority="357" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="396" priority="358" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="395" priority="359" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="394" priority="360" operator="equal">
+    <cfRule type="cellIs" dxfId="331" priority="358" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="330" priority="359" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="329" priority="360" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="393" priority="361" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="392" priority="362" operator="equal">
+    <cfRule type="cellIs" dxfId="328" priority="361" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="327" priority="362" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="391" priority="363" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="390" priority="364" operator="equal">
+    <cfRule type="cellIs" dxfId="326" priority="363" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="325" priority="364" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4:W4 O10:Q12 O18:W18 O5:P5 R6:S8 O7:P9 U5:W9 O17:P17 O13:P15 R14:S16 U13:W17 S10:W12">
-    <cfRule type="cellIs" dxfId="389" priority="339" operator="equal">
+    <cfRule type="cellIs" dxfId="324" priority="339" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="388" priority="340" operator="equal">
+    <cfRule type="cellIs" dxfId="323" priority="340" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="387" priority="341" operator="equal">
+    <cfRule type="cellIs" dxfId="322" priority="341" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="386" priority="342" operator="equal">
+    <cfRule type="cellIs" dxfId="321" priority="342" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="385" priority="343" operator="equal">
+    <cfRule type="cellIs" dxfId="320" priority="343" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="384" priority="344" operator="equal">
+    <cfRule type="cellIs" dxfId="319" priority="344" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="383" priority="345" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="382" priority="346" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="381" priority="347" operator="equal">
+    <cfRule type="cellIs" dxfId="318" priority="345" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="317" priority="346" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="316" priority="347" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="380" priority="348" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="379" priority="349" operator="equal">
+    <cfRule type="cellIs" dxfId="315" priority="348" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="314" priority="349" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="378" priority="350" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="377" priority="351" operator="equal">
+    <cfRule type="cellIs" dxfId="313" priority="350" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="312" priority="351" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:K4 J8:N8 J6:M6 M4:N4">
-    <cfRule type="cellIs" dxfId="376" priority="326" operator="equal">
+    <cfRule type="cellIs" dxfId="311" priority="326" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="375" priority="327" operator="equal">
+    <cfRule type="cellIs" dxfId="310" priority="327" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="374" priority="328" operator="equal">
+    <cfRule type="cellIs" dxfId="309" priority="328" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="373" priority="329" operator="equal">
+    <cfRule type="cellIs" dxfId="308" priority="329" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="372" priority="330" operator="equal">
+    <cfRule type="cellIs" dxfId="307" priority="330" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="371" priority="331" operator="equal">
+    <cfRule type="cellIs" dxfId="306" priority="331" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="370" priority="332" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="369" priority="333" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="368" priority="334" operator="equal">
+    <cfRule type="cellIs" dxfId="305" priority="332" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="304" priority="333" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="303" priority="334" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="367" priority="335" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="366" priority="336" operator="equal">
+    <cfRule type="cellIs" dxfId="302" priority="335" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="301" priority="336" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="365" priority="337" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="364" priority="338" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="337" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="299" priority="338" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14:N18">
-    <cfRule type="cellIs" dxfId="350" priority="313" operator="equal">
+    <cfRule type="cellIs" dxfId="298" priority="313" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="349" priority="314" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="314" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="348" priority="315" operator="equal">
+    <cfRule type="cellIs" dxfId="296" priority="315" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="347" priority="316" operator="equal">
+    <cfRule type="cellIs" dxfId="295" priority="316" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="346" priority="317" operator="equal">
+    <cfRule type="cellIs" dxfId="294" priority="317" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="345" priority="318" operator="equal">
+    <cfRule type="cellIs" dxfId="293" priority="318" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="344" priority="319" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="343" priority="320" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="342" priority="321" operator="equal">
+    <cfRule type="cellIs" dxfId="292" priority="319" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="291" priority="320" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="290" priority="321" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="341" priority="322" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="340" priority="323" operator="equal">
+    <cfRule type="cellIs" dxfId="289" priority="322" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="288" priority="323" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="339" priority="324" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="338" priority="325" operator="equal">
+    <cfRule type="cellIs" dxfId="287" priority="324" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="286" priority="325" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7:N7">
-    <cfRule type="cellIs" dxfId="363" priority="300" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="300" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="362" priority="301" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="301" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="361" priority="302" operator="equal">
+    <cfRule type="cellIs" dxfId="283" priority="302" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="360" priority="303" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="303" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="359" priority="304" operator="equal">
+    <cfRule type="cellIs" dxfId="281" priority="304" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="358" priority="305" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="305" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="357" priority="306" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="356" priority="307" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="355" priority="308" operator="equal">
+    <cfRule type="cellIs" dxfId="279" priority="306" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="278" priority="307" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="277" priority="308" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="354" priority="309" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="353" priority="310" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="309" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="275" priority="310" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="352" priority="311" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="351" priority="312" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="311" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="273" priority="312" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5:N5">
-    <cfRule type="cellIs" dxfId="337" priority="287" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="287" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="336" priority="288" operator="equal">
+    <cfRule type="cellIs" dxfId="271" priority="288" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="335" priority="289" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="289" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="334" priority="290" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="290" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="333" priority="291" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="291" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="332" priority="292" operator="equal">
+    <cfRule type="cellIs" dxfId="267" priority="292" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="331" priority="293" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="330" priority="294" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="329" priority="295" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="293" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="265" priority="294" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="264" priority="295" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="328" priority="296" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="327" priority="297" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="296" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="262" priority="297" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="326" priority="298" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="325" priority="299" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="298" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="260" priority="299" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4">
-    <cfRule type="cellIs" dxfId="324" priority="274" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="274" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="323" priority="275" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="275" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="322" priority="276" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="276" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="321" priority="277" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="277" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="320" priority="278" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="278" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="319" priority="279" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="279" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="318" priority="280" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="317" priority="281" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="316" priority="282" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="280" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="252" priority="281" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="251" priority="282" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="315" priority="283" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="314" priority="284" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="283" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="249" priority="284" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="313" priority="285" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="312" priority="286" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="285" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="247" priority="286" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:I6">
-    <cfRule type="cellIs" dxfId="311" priority="261" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="261" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="310" priority="262" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="262" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="309" priority="263" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="263" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="308" priority="264" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="264" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="307" priority="265" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="265" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="306" priority="266" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="266" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="305" priority="267" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="304" priority="268" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="303" priority="269" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="267" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="239" priority="268" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="238" priority="269" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="302" priority="270" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="301" priority="271" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="270" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="236" priority="271" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="300" priority="272" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="299" priority="273" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="272" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="234" priority="273" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6:P6">
-    <cfRule type="cellIs" dxfId="298" priority="248" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="248" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="297" priority="249" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="249" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="296" priority="250" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="250" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="295" priority="251" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="251" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="294" priority="252" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="252" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="293" priority="253" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="253" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="292" priority="254" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="291" priority="255" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="290" priority="256" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="254" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="226" priority="255" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="225" priority="256" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="289" priority="257" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="288" priority="258" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="257" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="223" priority="258" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="287" priority="259" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="286" priority="260" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="259" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="221" priority="260" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16:I16">
-    <cfRule type="cellIs" dxfId="285" priority="235" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="235" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="284" priority="236" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="236" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="283" priority="237" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="237" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="282" priority="238" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="238" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="281" priority="239" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="239" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="280" priority="240" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="240" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="279" priority="241" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="278" priority="242" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="277" priority="243" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="241" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="213" priority="242" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="212" priority="243" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="276" priority="244" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="275" priority="245" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="244" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="210" priority="245" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="274" priority="246" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="273" priority="247" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="246" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="208" priority="247" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O16:P16">
-    <cfRule type="cellIs" dxfId="272" priority="222" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="222" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="271" priority="223" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="223" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="270" priority="224" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="224" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="269" priority="225" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="225" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="268" priority="226" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="226" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="267" priority="227" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="227" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="266" priority="228" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="265" priority="229" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="264" priority="230" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="228" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="200" priority="229" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="199" priority="230" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="263" priority="231" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="262" priority="232" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="231" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="197" priority="232" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="261" priority="233" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="260" priority="234" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="233" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="195" priority="234" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q5:Q7">
-    <cfRule type="cellIs" dxfId="246" priority="196" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="196" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="245" priority="197" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="197" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="244" priority="198" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="198" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="243" priority="199" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="199" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="242" priority="200" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="200" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="241" priority="201" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="201" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="202" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="239" priority="203" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="204" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="202" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="187" priority="203" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="186" priority="204" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="237" priority="205" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="236" priority="206" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="205" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="184" priority="206" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="235" priority="207" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="208" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="207" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="182" priority="208" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q8">
-    <cfRule type="cellIs" dxfId="233" priority="183" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="183" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="184" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="184" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="231" priority="185" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="185" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="230" priority="186" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="186" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="229" priority="187" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="187" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="188" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="227" priority="189" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="190" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="191" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="189" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="174" priority="190" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="173" priority="191" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="224" priority="192" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="223" priority="193" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="192" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="171" priority="193" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="194" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="221" priority="195" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="194" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="169" priority="195" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R5:S5">
-    <cfRule type="cellIs" dxfId="220" priority="170" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="170" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="219" priority="171" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="171" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="218" priority="172" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="172" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="173" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="173" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="174" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="174" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="215" priority="175" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="175" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="176" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="177" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="212" priority="178" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="176" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="161" priority="177" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="160" priority="178" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="211" priority="179" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="180" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="179" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="158" priority="180" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="209" priority="181" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="182" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="181" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="156" priority="182" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T5:T8">
-    <cfRule type="cellIs" dxfId="207" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="157" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="206" priority="158" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="158" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="159" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="160" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="203" priority="161" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="161" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="162" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="162" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="163" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="200" priority="164" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="199" priority="165" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="163" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="148" priority="164" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="147" priority="165" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="166" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="197" priority="167" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="166" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="145" priority="167" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="168" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="195" priority="169" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="168" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="143" priority="169" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q9:T9">
-    <cfRule type="cellIs" dxfId="194" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="144" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="145" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="146" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="191" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="147" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="148" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="149" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="150" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="187" priority="151" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="150" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="135" priority="151" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="134" priority="152" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="185" priority="153" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="153" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="132" priority="154" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="183" priority="155" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="155" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="130" priority="156" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q14:Q17">
-    <cfRule type="cellIs" dxfId="181" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="131" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="132" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="179" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="133" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="134" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="135" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="136" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="175" priority="137" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="138" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="137" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="122" priority="138" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="121" priority="139" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="140" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="171" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="140" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="119" priority="141" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="142" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="142" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="117" priority="143" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q13 S13">
-    <cfRule type="cellIs" dxfId="155" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="105" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="106" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="107" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="108" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="109" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="110" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="111" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="112" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="111" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="109" priority="112" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="108" priority="113" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="114" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="114" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="106" priority="115" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="116" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="143" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="116" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="104" priority="117" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T13:T17">
-    <cfRule type="cellIs" dxfId="142" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="92" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="93" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="94" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="95" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="96" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="97" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="98" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="99" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="98" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="96" priority="99" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="95" priority="100" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="101" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="101" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="93" priority="102" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="131" priority="103" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="103" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="91" priority="104" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R17:S17">
-    <cfRule type="cellIs" dxfId="129" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="79" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="80" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="81" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="82" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="83" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="84" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="85" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="86" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="85" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="83" priority="86" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="87" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="88" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="119" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="88" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="80" priority="89" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="90" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="90" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="91" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R10:R13">
-    <cfRule type="cellIs" dxfId="116" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="66" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="67" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="68" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="69" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="70" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="71" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="72" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="73" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="72" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="73" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="69" priority="74" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="75" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="75" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="67" priority="76" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="77" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="77" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="65" priority="78" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13:G17 E17:G17">
-    <cfRule type="cellIs" dxfId="103" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="53" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="54" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="55" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="56" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="57" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="58" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="59" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="60" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="59" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="60" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="61" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="62" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="62" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="63" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="64" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="64" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="65" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:D17 D13:G13">
-    <cfRule type="cellIs" dxfId="90" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="40" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="41" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="42" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="43" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="44" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="45" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="46" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="47" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="46" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="47" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="48" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="49" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="49" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="41" priority="50" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="51" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="51" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="52" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/04_memo/map12.xlsx
+++ b/04_memo/map12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\チーム制作\Graduation\04_memo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A15CC8B9-3587-422C-85DF-C8C58C076C8A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A0F023-8773-4CEC-84EE-8C3B8EF1EFDD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{C7BDA5DA-34EB-4FCF-82F5-5A002EE4A89E}"/>
   </bookViews>
@@ -1153,7 +1153,7 @@
   <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1308,13 +1308,13 @@
         <v>0</v>
       </c>
       <c r="L5" s="3">
+        <v>8</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0</v>
+      </c>
+      <c r="N5" s="3">
         <v>2</v>
-      </c>
-      <c r="M5" s="3">
-        <v>0</v>
-      </c>
-      <c r="N5" s="3">
-        <v>0</v>
       </c>
       <c r="O5" s="3">
         <v>0</v>
@@ -1404,7 +1404,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
         <v>0</v>
@@ -1440,7 +1440,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="4">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
@@ -2040,7 +2040,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="4">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="5">
         <v>1</v>
@@ -2076,7 +2076,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
@@ -2124,7 +2124,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="U16" s="1">
         <v>0</v>
@@ -2166,13 +2166,13 @@
         <v>0</v>
       </c>
       <c r="J17" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K17" s="3">
         <v>0</v>
       </c>
       <c r="L17" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M17" s="3">
         <v>0</v>
